--- a/formatted/candidates/candidates-2/candidates-skill-ratings.xlsx
+++ b/formatted/candidates/candidates-2/candidates-skill-ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8186643A-97D1-5046-B5A5-3BE2F1506D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA2A9CF-F1C2-5146-AD42-8CCD009082DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="51760" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4203,7 +4203,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C279" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/formatted/candidates/candidates-2/candidates-skill-ratings.xlsx
+++ b/formatted/candidates/candidates-2/candidates-skill-ratings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA2A9CF-F1C2-5146-AD42-8CCD009082DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE57C427-C211-EE4D-B6C4-EF8AD91325F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="51760" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="9">
   <si>
     <t>rating</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>metaCreators.id</t>
-  </si>
-  <si>
-    <t>accessRightAssets.id</t>
   </si>
 </sst>
 </file>
@@ -102,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,30 +122,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D279"/>
+  <dimension ref="A1:C279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="G264" sqref="G264"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -462,10 +445,9 @@
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -475,11 +457,8 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4532381</v>
       </c>
@@ -489,11 +468,8 @@
       <c r="C2" s="2">
         <v>25</v>
       </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4533914</v>
       </c>
@@ -503,11 +479,8 @@
       <c r="C3">
         <v>26</v>
       </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4532230</v>
       </c>
@@ -517,11 +490,8 @@
       <c r="C4" s="2">
         <v>23</v>
       </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4533893</v>
       </c>
@@ -531,23 +501,19 @@
       <c r="C5">
         <v>22</v>
       </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4533977</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4534193</v>
       </c>
@@ -557,11 +523,8 @@
       <c r="C7" s="2">
         <v>25</v>
       </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4533591</v>
       </c>
@@ -571,11 +534,8 @@
       <c r="C8" s="2">
         <v>23</v>
       </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4533435</v>
       </c>
@@ -585,11 +545,8 @@
       <c r="C9">
         <v>22</v>
       </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4533461</v>
       </c>
@@ -599,34 +556,30 @@
       <c r="C10" s="2">
         <v>23</v>
       </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4534517</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4535461</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4535633</v>
       </c>
@@ -636,11 +589,8 @@
       <c r="C13" s="2">
         <v>23</v>
       </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4532916</v>
       </c>
@@ -650,11 +600,8 @@
       <c r="C14" s="2">
         <v>21</v>
       </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4532925</v>
       </c>
@@ -664,11 +611,8 @@
       <c r="C15" s="2">
         <v>23</v>
       </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4534451</v>
       </c>
@@ -678,11 +622,8 @@
       <c r="C16">
         <v>22</v>
       </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4537053</v>
       </c>
@@ -692,11 +633,8 @@
       <c r="C17" s="2">
         <v>23</v>
       </c>
-      <c r="D17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4535483</v>
       </c>
@@ -706,22 +644,19 @@
       <c r="C18" s="2">
         <v>23</v>
       </c>
-      <c r="D18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4535316</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4535093</v>
       </c>
@@ -731,11 +666,8 @@
       <c r="C20">
         <v>22</v>
       </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4535111</v>
       </c>
@@ -745,11 +677,8 @@
       <c r="C21" s="2">
         <v>23</v>
       </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4535128</v>
       </c>
@@ -759,23 +688,19 @@
       <c r="C22" s="2">
         <v>27</v>
       </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4534950</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C23" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4534213</v>
       </c>
@@ -785,11 +710,8 @@
       <c r="C24" s="2">
         <v>20</v>
       </c>
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4535659</v>
       </c>
@@ -799,23 +721,19 @@
       <c r="C25">
         <v>26</v>
       </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4535663</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C26" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4536791</v>
       </c>
@@ -825,11 +743,8 @@
       <c r="C27" s="2">
         <v>25</v>
       </c>
-      <c r="D27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4537053</v>
       </c>
@@ -839,11 +754,8 @@
       <c r="C28" s="2">
         <v>23</v>
       </c>
-      <c r="D28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4534268</v>
       </c>
@@ -853,11 +765,8 @@
       <c r="C29" s="2">
         <v>15</v>
       </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4534152</v>
       </c>
@@ -867,11 +776,8 @@
       <c r="C30">
         <v>22</v>
       </c>
-      <c r="D30" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4534360</v>
       </c>
@@ -881,35 +787,30 @@
       <c r="C31">
         <v>22</v>
       </c>
-      <c r="D31" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4534696</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C32" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4535177</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4535342</v>
       </c>
@@ -919,11 +820,8 @@
       <c r="C34" s="2">
         <v>23</v>
       </c>
-      <c r="D34" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4535780</v>
       </c>
@@ -933,23 +831,19 @@
       <c r="C35">
         <v>22</v>
       </c>
-      <c r="D35" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4535784</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4538615</v>
       </c>
@@ -959,23 +853,19 @@
       <c r="C37" s="2">
         <v>23</v>
       </c>
-      <c r="D37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4537343</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4537371</v>
       </c>
@@ -985,23 +875,19 @@
       <c r="C39" s="2">
         <v>23</v>
       </c>
-      <c r="D39" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4537402</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C40" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4537966</v>
       </c>
@@ -1011,11 +897,8 @@
       <c r="C41" s="2">
         <v>23</v>
       </c>
-      <c r="D41" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4536193</v>
       </c>
@@ -1025,11 +908,8 @@
       <c r="C42" s="2">
         <v>25</v>
       </c>
-      <c r="D42" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4535974</v>
       </c>
@@ -1039,11 +919,8 @@
       <c r="C43" s="2">
         <v>23</v>
       </c>
-      <c r="D43" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4536267</v>
       </c>
@@ -1053,23 +930,19 @@
       <c r="C44" s="2">
         <v>23</v>
       </c>
-      <c r="D44" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4536742</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C45" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4536428</v>
       </c>
@@ -1079,11 +952,8 @@
       <c r="C46">
         <v>22</v>
       </c>
-      <c r="D46" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4537393</v>
       </c>
@@ -1093,23 +963,19 @@
       <c r="C47" s="2">
         <v>23</v>
       </c>
-      <c r="D47" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4537411</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C48" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4538197</v>
       </c>
@@ -1119,11 +985,8 @@
       <c r="C49" s="2">
         <v>23</v>
       </c>
-      <c r="D49" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4537833</v>
       </c>
@@ -1133,11 +996,8 @@
       <c r="C50" s="2">
         <v>23</v>
       </c>
-      <c r="D50" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4538945</v>
       </c>
@@ -1147,11 +1007,8 @@
       <c r="C51">
         <v>22</v>
       </c>
-      <c r="D51" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4538508</v>
       </c>
@@ -1161,11 +1018,8 @@
       <c r="C52">
         <v>22</v>
       </c>
-      <c r="D52" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4539588</v>
       </c>
@@ -1175,23 +1029,19 @@
       <c r="C53" s="2">
         <v>15</v>
       </c>
-      <c r="D53" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4539654</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C54" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4537530</v>
       </c>
@@ -1201,11 +1051,8 @@
       <c r="C55" s="2">
         <v>23</v>
       </c>
-      <c r="D55" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4539708</v>
       </c>
@@ -1215,11 +1062,8 @@
       <c r="C56">
         <v>22</v>
       </c>
-      <c r="D56" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4539728</v>
       </c>
@@ -1229,11 +1073,8 @@
       <c r="C57" s="2">
         <v>23</v>
       </c>
-      <c r="D57" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4541265</v>
       </c>
@@ -1243,34 +1084,30 @@
       <c r="C58" s="2">
         <v>23</v>
       </c>
-      <c r="D58" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4541484</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C59" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4541690</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C60" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4541751</v>
       </c>
@@ -1280,22 +1117,19 @@
       <c r="C61" s="2">
         <v>23</v>
       </c>
-      <c r="D61" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4540163</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C62" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4541638</v>
       </c>
@@ -1305,11 +1139,8 @@
       <c r="C63" s="2">
         <v>23</v>
       </c>
-      <c r="D63" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4540903</v>
       </c>
@@ -1319,34 +1150,30 @@
       <c r="C64" s="2">
         <v>23</v>
       </c>
-      <c r="D64" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4540587</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C65" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4541436</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C66" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4541890</v>
       </c>
@@ -1356,11 +1183,8 @@
       <c r="C67">
         <v>22</v>
       </c>
-      <c r="D67" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4542318</v>
       </c>
@@ -1370,35 +1194,30 @@
       <c r="C68">
         <v>22</v>
       </c>
-      <c r="D68" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4542228</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C69" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4542258</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4542068</v>
       </c>
@@ -1408,23 +1227,19 @@
       <c r="C71" s="2">
         <v>21</v>
       </c>
-      <c r="D71" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4542477</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C72" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4542544</v>
       </c>
@@ -1434,11 +1249,8 @@
       <c r="C73" s="2">
         <v>23</v>
       </c>
-      <c r="D73" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4542723</v>
       </c>
@@ -1448,11 +1260,8 @@
       <c r="C74">
         <v>22</v>
       </c>
-      <c r="D74" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4544134</v>
       </c>
@@ -1462,11 +1271,8 @@
       <c r="C75">
         <v>22</v>
       </c>
-      <c r="D75" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4542994</v>
       </c>
@@ -1476,23 +1282,19 @@
       <c r="C76" s="2">
         <v>20</v>
       </c>
-      <c r="D76" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4542406</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C77" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4542419</v>
       </c>
@@ -1502,11 +1304,8 @@
       <c r="C78" s="2">
         <v>23</v>
       </c>
-      <c r="D78" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4544170</v>
       </c>
@@ -1516,11 +1315,8 @@
       <c r="C79" s="2">
         <v>23</v>
       </c>
-      <c r="D79" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4543713</v>
       </c>
@@ -1530,34 +1326,30 @@
       <c r="C80" s="2">
         <v>23</v>
       </c>
-      <c r="D80" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4544056</v>
       </c>
       <c r="B81" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C81" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4544347</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C82" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4545542</v>
       </c>
@@ -1567,11 +1359,8 @@
       <c r="C83" s="2">
         <v>23</v>
       </c>
-      <c r="D83" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4544475</v>
       </c>
@@ -1581,23 +1370,19 @@
       <c r="C84" s="2">
         <v>23</v>
       </c>
-      <c r="D84" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4527109</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C85" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4520339</v>
       </c>
@@ -1607,11 +1392,8 @@
       <c r="C86" s="2">
         <v>21</v>
       </c>
-      <c r="D86" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4537812</v>
       </c>
@@ -1621,11 +1403,8 @@
       <c r="C87" s="2">
         <v>23</v>
       </c>
-      <c r="D87" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4518819</v>
       </c>
@@ -1635,11 +1414,8 @@
       <c r="C88" s="2">
         <v>23</v>
       </c>
-      <c r="D88" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4545098</v>
       </c>
@@ -1649,11 +1425,8 @@
       <c r="C89" s="2">
         <v>23</v>
       </c>
-      <c r="D89" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4543226</v>
       </c>
@@ -1663,11 +1436,8 @@
       <c r="C90" s="2">
         <v>23</v>
       </c>
-      <c r="D90" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>4542471</v>
       </c>
@@ -1677,11 +1447,8 @@
       <c r="C91" s="2">
         <v>23</v>
       </c>
-      <c r="D91" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4542131</v>
       </c>
@@ -1691,11 +1458,8 @@
       <c r="C92" s="2">
         <v>15</v>
       </c>
-      <c r="D92" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4523238</v>
       </c>
@@ -1705,35 +1469,30 @@
       <c r="C93" s="2">
         <v>23</v>
       </c>
-      <c r="D93" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4545487</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C94" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4545121</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C95" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4518990</v>
       </c>
@@ -1743,11 +1502,8 @@
       <c r="C96" s="2">
         <v>23</v>
       </c>
-      <c r="D96" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4546322</v>
       </c>
@@ -1757,11 +1513,8 @@
       <c r="C97">
         <v>22</v>
       </c>
-      <c r="D97" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>4545211</v>
       </c>
@@ -1771,23 +1524,19 @@
       <c r="C98">
         <v>22</v>
       </c>
-      <c r="D98" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4519372</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C99" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4528648</v>
       </c>
@@ -1797,11 +1546,8 @@
       <c r="C100">
         <v>26</v>
       </c>
-      <c r="D100" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4522813</v>
       </c>
@@ -1811,22 +1557,19 @@
       <c r="C101" s="2">
         <v>23</v>
       </c>
-      <c r="D101" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4526678</v>
       </c>
       <c r="B102" t="s">
         <v>2</v>
       </c>
-      <c r="D102" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C102" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4534792</v>
       </c>
@@ -1836,11 +1579,8 @@
       <c r="C103" s="2">
         <v>23</v>
       </c>
-      <c r="D103" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4540603</v>
       </c>
@@ -1850,23 +1590,19 @@
       <c r="C104">
         <v>22</v>
       </c>
-      <c r="D104" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4534827</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C105" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>4544030</v>
       </c>
@@ -1876,23 +1612,19 @@
       <c r="C106">
         <v>22</v>
       </c>
-      <c r="D106" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4527242</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C107" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>4546460</v>
       </c>
@@ -1902,11 +1634,8 @@
       <c r="C108" s="2">
         <v>23</v>
       </c>
-      <c r="D108" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4546062</v>
       </c>
@@ -1916,11 +1645,8 @@
       <c r="C109" s="2">
         <v>15</v>
       </c>
-      <c r="D109" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4543883</v>
       </c>
@@ -1930,22 +1656,19 @@
       <c r="C110" s="2">
         <v>24</v>
       </c>
-      <c r="D110" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4535850</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
-      <c r="D111" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C111" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>4546709</v>
       </c>
@@ -1955,11 +1678,8 @@
       <c r="C112" s="2">
         <v>15</v>
       </c>
-      <c r="D112" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>4542843</v>
       </c>
@@ -1969,11 +1689,8 @@
       <c r="C113" s="2">
         <v>21</v>
       </c>
-      <c r="D113" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>4535359</v>
       </c>
@@ -1983,11 +1700,8 @@
       <c r="C114">
         <v>26</v>
       </c>
-      <c r="D114" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>4546634</v>
       </c>
@@ -1997,11 +1711,8 @@
       <c r="C115" s="2">
         <v>23</v>
       </c>
-      <c r="D115" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>4539946</v>
       </c>
@@ -2011,22 +1722,19 @@
       <c r="C116" s="2">
         <v>23</v>
       </c>
-      <c r="D116" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>4531363</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
       </c>
-      <c r="D117" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C117" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>4521280</v>
       </c>
@@ -2036,11 +1744,8 @@
       <c r="C118" s="2">
         <v>15</v>
       </c>
-      <c r="D118" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>4534287</v>
       </c>
@@ -2050,11 +1755,8 @@
       <c r="C119">
         <v>26</v>
       </c>
-      <c r="D119" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>4547458</v>
       </c>
@@ -2064,11 +1766,8 @@
       <c r="C120" s="2">
         <v>24</v>
       </c>
-      <c r="D120" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>4547187</v>
       </c>
@@ -2078,11 +1777,8 @@
       <c r="C121">
         <v>22</v>
       </c>
-      <c r="D121" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>4547207</v>
       </c>
@@ -2092,11 +1788,8 @@
       <c r="C122">
         <v>22</v>
       </c>
-      <c r="D122" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>4538249</v>
       </c>
@@ -2106,34 +1799,30 @@
       <c r="C123">
         <v>22</v>
       </c>
-      <c r="D123" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>4535735</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C124" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4528353</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C125" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>4523114</v>
       </c>
@@ -2143,11 +1832,8 @@
       <c r="C126" s="2">
         <v>23</v>
       </c>
-      <c r="D126" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>4540551</v>
       </c>
@@ -2157,11 +1843,8 @@
       <c r="C127" s="2">
         <v>23</v>
       </c>
-      <c r="D127" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>4525781</v>
       </c>
@@ -2171,11 +1854,8 @@
       <c r="C128" s="2">
         <v>23</v>
       </c>
-      <c r="D128" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>4543042</v>
       </c>
@@ -2185,11 +1865,8 @@
       <c r="C129" s="2">
         <v>23</v>
       </c>
-      <c r="D129" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>4531497</v>
       </c>
@@ -2199,11 +1876,8 @@
       <c r="C130" s="2">
         <v>23</v>
       </c>
-      <c r="D130" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>4532365</v>
       </c>
@@ -2213,11 +1887,8 @@
       <c r="C131" s="2">
         <v>23</v>
       </c>
-      <c r="D131" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>4548380</v>
       </c>
@@ -2227,23 +1898,19 @@
       <c r="C132">
         <v>26</v>
       </c>
-      <c r="D132" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>4538946</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C133" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>4527202</v>
       </c>
@@ -2253,35 +1920,30 @@
       <c r="C134" s="2">
         <v>15</v>
       </c>
-      <c r="D134" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>4545356</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C135" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>4534097</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C136" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>4541560</v>
       </c>
@@ -2291,11 +1953,8 @@
       <c r="C137" s="2">
         <v>23</v>
       </c>
-      <c r="D137" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>4544367</v>
       </c>
@@ -2305,11 +1964,8 @@
       <c r="C138" s="2">
         <v>23</v>
       </c>
-      <c r="D138" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>4540284</v>
       </c>
@@ -2319,11 +1975,8 @@
       <c r="C139">
         <v>33</v>
       </c>
-      <c r="D139" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>4531205</v>
       </c>
@@ -2333,11 +1986,8 @@
       <c r="C140" s="2">
         <v>23</v>
       </c>
-      <c r="D140" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>4546867</v>
       </c>
@@ -2347,11 +1997,8 @@
       <c r="C141" s="2">
         <v>23</v>
       </c>
-      <c r="D141" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>4528077</v>
       </c>
@@ -2361,11 +2008,8 @@
       <c r="C142" s="2">
         <v>23</v>
       </c>
-      <c r="D142" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>4535915</v>
       </c>
@@ -2375,11 +2019,8 @@
       <c r="C143" s="2">
         <v>21</v>
       </c>
-      <c r="D143" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>4526272</v>
       </c>
@@ -2389,11 +2030,8 @@
       <c r="C144">
         <v>33</v>
       </c>
-      <c r="D144" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>4518823</v>
       </c>
@@ -2403,11 +2041,8 @@
       <c r="C145">
         <v>22</v>
       </c>
-      <c r="D145" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>4534064</v>
       </c>
@@ -2417,11 +2052,8 @@
       <c r="C146" s="2">
         <v>23</v>
       </c>
-      <c r="D146" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>4548603</v>
       </c>
@@ -2431,11 +2063,8 @@
       <c r="C147" s="2">
         <v>15</v>
       </c>
-      <c r="D147" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>4527976</v>
       </c>
@@ -2445,57 +2074,52 @@
       <c r="C148" s="2">
         <v>23</v>
       </c>
-      <c r="D148" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>4540491</v>
       </c>
       <c r="B149" t="s">
         <v>2</v>
       </c>
-      <c r="D149" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C149" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>4542400</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C150" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>4522364</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
       </c>
-      <c r="D151" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C151" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>4548926</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C152" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>4530483</v>
       </c>
@@ -2505,11 +2129,8 @@
       <c r="C153" s="2">
         <v>23</v>
       </c>
-      <c r="D153" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>4518832</v>
       </c>
@@ -2519,46 +2140,41 @@
       <c r="C154" s="2">
         <v>23</v>
       </c>
-      <c r="D154" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>4548647</v>
       </c>
       <c r="B155" t="s">
         <v>2</v>
       </c>
-      <c r="D155" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C155" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>4548395</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C156" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>4546923</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C157" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>4543907</v>
       </c>
@@ -2568,11 +2184,8 @@
       <c r="C158" s="2">
         <v>23</v>
       </c>
-      <c r="D158" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>4524188</v>
       </c>
@@ -2582,11 +2195,8 @@
       <c r="C159" s="2">
         <v>23</v>
       </c>
-      <c r="D159" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>4539353</v>
       </c>
@@ -2596,11 +2206,8 @@
       <c r="C160" s="2">
         <v>21</v>
       </c>
-      <c r="D160" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>4525423</v>
       </c>
@@ -2610,11 +2217,8 @@
       <c r="C161" s="2">
         <v>23</v>
       </c>
-      <c r="D161" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>4535838</v>
       </c>
@@ -2624,11 +2228,8 @@
       <c r="C162" s="2">
         <v>27</v>
       </c>
-      <c r="D162" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>4535888</v>
       </c>
@@ -2638,11 +2239,8 @@
       <c r="C163" s="2">
         <v>23</v>
       </c>
-      <c r="D163" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>4549208</v>
       </c>
@@ -2652,11 +2250,8 @@
       <c r="C164" s="2">
         <v>23</v>
       </c>
-      <c r="D164" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>4534462</v>
       </c>
@@ -2666,11 +2261,8 @@
       <c r="C165" s="2">
         <v>24</v>
       </c>
-      <c r="D165" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>4532049</v>
       </c>
@@ -2680,11 +2272,8 @@
       <c r="C166" s="2">
         <v>23</v>
       </c>
-      <c r="D166" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>4547701</v>
       </c>
@@ -2694,35 +2283,30 @@
       <c r="C167">
         <v>18</v>
       </c>
-      <c r="D167" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>4550141</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C168" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>4523965</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C169" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>4537705</v>
       </c>
@@ -2732,11 +2316,8 @@
       <c r="C170" s="2">
         <v>15</v>
       </c>
-      <c r="D170" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>4549086</v>
       </c>
@@ -2746,35 +2327,30 @@
       <c r="C171">
         <v>18</v>
       </c>
-      <c r="D171" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>4549481</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C172" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>4549362</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C173" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>4549242</v>
       </c>
@@ -2784,11 +2360,8 @@
       <c r="C174" s="2">
         <v>23</v>
       </c>
-      <c r="D174" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>4541030</v>
       </c>
@@ -2798,11 +2371,8 @@
       <c r="C175" s="2">
         <v>27</v>
       </c>
-      <c r="D175" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>4541990</v>
       </c>
@@ -2812,11 +2382,8 @@
       <c r="C176">
         <v>22</v>
       </c>
-      <c r="D176" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>4534421</v>
       </c>
@@ -2826,11 +2393,8 @@
       <c r="C177" s="2">
         <v>23</v>
       </c>
-      <c r="D177" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>4519888</v>
       </c>
@@ -2840,22 +2404,19 @@
       <c r="C178" s="2">
         <v>23</v>
       </c>
-      <c r="D178" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>4540100</v>
       </c>
       <c r="B179" t="s">
         <v>2</v>
       </c>
-      <c r="D179" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C179" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>4538352</v>
       </c>
@@ -2865,11 +2426,8 @@
       <c r="C180" s="2">
         <v>15</v>
       </c>
-      <c r="D180" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>4544294</v>
       </c>
@@ -2879,11 +2437,8 @@
       <c r="C181">
         <v>22</v>
       </c>
-      <c r="D181" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>4547026</v>
       </c>
@@ -2893,11 +2448,8 @@
       <c r="C182">
         <v>22</v>
       </c>
-      <c r="D182" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>4549672</v>
       </c>
@@ -2907,23 +2459,19 @@
       <c r="C183" s="2">
         <v>23</v>
       </c>
-      <c r="D183" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>4549215</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C184" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>4550041</v>
       </c>
@@ -2933,11 +2481,8 @@
       <c r="C185" s="2">
         <v>23</v>
       </c>
-      <c r="D185" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>4518848</v>
       </c>
@@ -2947,22 +2492,19 @@
       <c r="C186" s="2">
         <v>15</v>
       </c>
-      <c r="D186" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>4544099</v>
       </c>
       <c r="B187" t="s">
         <v>2</v>
       </c>
-      <c r="D187" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C187" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>4522007</v>
       </c>
@@ -2972,11 +2514,8 @@
       <c r="C188" s="2">
         <v>23</v>
       </c>
-      <c r="D188" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>4551193</v>
       </c>
@@ -2986,11 +2525,8 @@
       <c r="C189" s="2">
         <v>20</v>
       </c>
-      <c r="D189" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>4546462</v>
       </c>
@@ -3000,11 +2536,8 @@
       <c r="C190" s="2">
         <v>23</v>
       </c>
-      <c r="D190" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>4550595</v>
       </c>
@@ -3014,11 +2547,8 @@
       <c r="C191">
         <v>26</v>
       </c>
-      <c r="D191" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>4550514</v>
       </c>
@@ -3028,11 +2558,8 @@
       <c r="C192" s="2">
         <v>15</v>
       </c>
-      <c r="D192" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>4550593</v>
       </c>
@@ -3042,11 +2569,8 @@
       <c r="C193">
         <v>22</v>
       </c>
-      <c r="D193" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>4518842</v>
       </c>
@@ -3056,11 +2580,8 @@
       <c r="C194" s="2">
         <v>15</v>
       </c>
-      <c r="D194" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>4541246</v>
       </c>
@@ -3070,22 +2591,19 @@
       <c r="C195">
         <v>22</v>
       </c>
-      <c r="D195" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>4548570</v>
       </c>
       <c r="B196" t="s">
         <v>2</v>
       </c>
-      <c r="D196" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C196" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>4549216</v>
       </c>
@@ -3095,11 +2613,8 @@
       <c r="C197" s="2">
         <v>23</v>
       </c>
-      <c r="D197" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>4544274</v>
       </c>
@@ -3109,47 +2624,41 @@
       <c r="C198" s="2">
         <v>23</v>
       </c>
-      <c r="D198" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>4537325</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C199" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>4550353</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C200" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>4518853</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C201" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>4548097</v>
       </c>
@@ -3159,11 +2668,8 @@
       <c r="C202" s="2">
         <v>15</v>
       </c>
-      <c r="D202" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>4521829</v>
       </c>
@@ -3173,11 +2679,8 @@
       <c r="C203" s="2">
         <v>23</v>
       </c>
-      <c r="D203" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>4550142</v>
       </c>
@@ -3187,11 +2690,8 @@
       <c r="C204">
         <v>26</v>
       </c>
-      <c r="D204" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>4539286</v>
       </c>
@@ -3201,47 +2701,41 @@
       <c r="C205" s="2">
         <v>15</v>
       </c>
-      <c r="D205" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>4526639</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C206" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>4543858</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C207" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>4551351</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C208" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>4551065</v>
       </c>
@@ -3251,11 +2745,8 @@
       <c r="C209">
         <v>22</v>
       </c>
-      <c r="D209" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>4536281</v>
       </c>
@@ -3265,11 +2756,8 @@
       <c r="C210" s="2">
         <v>15</v>
       </c>
-      <c r="D210" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>4550733</v>
       </c>
@@ -3279,11 +2767,8 @@
       <c r="C211" s="2">
         <v>23</v>
       </c>
-      <c r="D211" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>4546554</v>
       </c>
@@ -3293,11 +2778,8 @@
       <c r="C212" s="2">
         <v>24</v>
       </c>
-      <c r="D212" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>4519883</v>
       </c>
@@ -3307,11 +2789,8 @@
       <c r="C213" s="2">
         <v>23</v>
       </c>
-      <c r="D213" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>4550804</v>
       </c>
@@ -3321,11 +2800,8 @@
       <c r="C214" s="2">
         <v>21</v>
       </c>
-      <c r="D214" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>4521966</v>
       </c>
@@ -3335,35 +2811,30 @@
       <c r="C215" s="2">
         <v>15</v>
       </c>
-      <c r="D215" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>4549369</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C216" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>4546986</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C217" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>4527606</v>
       </c>
@@ -3373,35 +2844,30 @@
       <c r="C218" s="2">
         <v>23</v>
       </c>
-      <c r="D218" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>4518863</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C219" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>4523031</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C220" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>4549085</v>
       </c>
@@ -3411,11 +2877,8 @@
       <c r="C221" s="2">
         <v>15</v>
       </c>
-      <c r="D221" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>4550130</v>
       </c>
@@ -3425,11 +2888,8 @@
       <c r="C222" s="2">
         <v>19</v>
       </c>
-      <c r="D222" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>4533903</v>
       </c>
@@ -3439,23 +2899,19 @@
       <c r="C223" s="2">
         <v>23</v>
       </c>
-      <c r="D223" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>4544618</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C224" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>4519891</v>
       </c>
@@ -3465,11 +2921,8 @@
       <c r="C225" s="2">
         <v>23</v>
       </c>
-      <c r="D225" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>4526445</v>
       </c>
@@ -3479,11 +2932,8 @@
       <c r="C226" s="2">
         <v>23</v>
       </c>
-      <c r="D226" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>4552191</v>
       </c>
@@ -3493,23 +2943,19 @@
       <c r="C227" s="2">
         <v>15</v>
       </c>
-      <c r="D227" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>4518864</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C228" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>4552747</v>
       </c>
@@ -3519,35 +2965,30 @@
       <c r="C229" s="2">
         <v>21</v>
       </c>
-      <c r="D229" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>4545404</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C230" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>4541464</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C231" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>4552297</v>
       </c>
@@ -3557,11 +2998,8 @@
       <c r="C232">
         <v>22</v>
       </c>
-      <c r="D232" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>4525392</v>
       </c>
@@ -3571,11 +3009,8 @@
       <c r="C233" s="2">
         <v>23</v>
       </c>
-      <c r="D233" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>4551608</v>
       </c>
@@ -3585,11 +3020,8 @@
       <c r="C234" s="2">
         <v>25</v>
       </c>
-      <c r="D234" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>4551464</v>
       </c>
@@ -3599,23 +3031,19 @@
       <c r="C235" s="2">
         <v>23</v>
       </c>
-      <c r="D235" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>4549941</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C236" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>4551778</v>
       </c>
@@ -3625,11 +3053,8 @@
       <c r="C237" s="2">
         <v>21</v>
       </c>
-      <c r="D237" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>4538620</v>
       </c>
@@ -3639,11 +3064,8 @@
       <c r="C238" s="2">
         <v>23</v>
       </c>
-      <c r="D238" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>4551985</v>
       </c>
@@ -3653,11 +3075,8 @@
       <c r="C239">
         <v>22</v>
       </c>
-      <c r="D239" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>4552753</v>
       </c>
@@ -3667,11 +3086,8 @@
       <c r="C240">
         <v>26</v>
       </c>
-      <c r="D240" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>4535535</v>
       </c>
@@ -3681,11 +3097,8 @@
       <c r="C241" s="2">
         <v>23</v>
       </c>
-      <c r="D241" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>4522536</v>
       </c>
@@ -3695,11 +3108,8 @@
       <c r="C242" s="2">
         <v>23</v>
       </c>
-      <c r="D242" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>4549333</v>
       </c>
@@ -3709,11 +3119,8 @@
       <c r="C243">
         <v>22</v>
       </c>
-      <c r="D243" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>4551499</v>
       </c>
@@ -3723,23 +3130,19 @@
       <c r="C244">
         <v>22</v>
       </c>
-      <c r="D244" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>4546031</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C245" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>4552865</v>
       </c>
@@ -3749,11 +3152,8 @@
       <c r="C246">
         <v>26</v>
       </c>
-      <c r="D246" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>4521250</v>
       </c>
@@ -3763,11 +3163,8 @@
       <c r="C247" s="2">
         <v>21</v>
       </c>
-      <c r="D247" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>4523941</v>
       </c>
@@ -3777,23 +3174,19 @@
       <c r="C248">
         <v>22</v>
       </c>
-      <c r="D248" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>4528543</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C249" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>4520448</v>
       </c>
@@ -3803,23 +3196,19 @@
       <c r="C250" s="2">
         <v>15</v>
       </c>
-      <c r="D250" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>4525489</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C251" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>4544458</v>
       </c>
@@ -3829,11 +3218,8 @@
       <c r="C252" s="2">
         <v>15</v>
       </c>
-      <c r="D252" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>4538154</v>
       </c>
@@ -3843,11 +3229,8 @@
       <c r="C253" s="2">
         <v>23</v>
       </c>
-      <c r="D253" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>4521378</v>
       </c>
@@ -3857,34 +3240,30 @@
       <c r="C254" s="2">
         <v>21</v>
       </c>
-      <c r="D254" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>4531086</v>
       </c>
       <c r="B255" t="s">
         <v>2</v>
       </c>
-      <c r="D255" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C255" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>4526686</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C256" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>4538542</v>
       </c>
@@ -3894,11 +3273,8 @@
       <c r="C257" s="2">
         <v>21</v>
       </c>
-      <c r="D257" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>4522701</v>
       </c>
@@ -3908,23 +3284,19 @@
       <c r="C258" s="2">
         <v>23</v>
       </c>
-      <c r="D258" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>4552840</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C259" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>4550991</v>
       </c>
@@ -3934,11 +3306,8 @@
       <c r="C260" s="2">
         <v>23</v>
       </c>
-      <c r="D260" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>4550493</v>
       </c>
@@ -3948,11 +3317,8 @@
       <c r="C261">
         <v>22</v>
       </c>
-      <c r="D261" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>4551447</v>
       </c>
@@ -3962,11 +3328,8 @@
       <c r="C262" s="2">
         <v>15</v>
       </c>
-      <c r="D262" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>4522744</v>
       </c>
@@ -3976,11 +3339,8 @@
       <c r="C263" s="2">
         <v>23</v>
       </c>
-      <c r="D263" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>4548524</v>
       </c>
@@ -3990,11 +3350,8 @@
       <c r="C264">
         <v>18</v>
       </c>
-      <c r="D264" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>4541976</v>
       </c>
@@ -4004,11 +3361,8 @@
       <c r="C265" s="2">
         <v>21</v>
       </c>
-      <c r="D265" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>4518867</v>
       </c>
@@ -4018,11 +3372,8 @@
       <c r="C266" s="2">
         <v>23</v>
       </c>
-      <c r="D266" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>4554541</v>
       </c>
@@ -4032,11 +3383,8 @@
       <c r="C267" s="2">
         <v>23</v>
       </c>
-      <c r="D267" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>4553126</v>
       </c>
@@ -4046,11 +3394,8 @@
       <c r="C268" s="2">
         <v>25</v>
       </c>
-      <c r="D268" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>4553953</v>
       </c>
@@ -4060,11 +3405,8 @@
       <c r="C269" s="2">
         <v>23</v>
       </c>
-      <c r="D269" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>4553398</v>
       </c>
@@ -4074,23 +3416,19 @@
       <c r="C270">
         <v>26</v>
       </c>
-      <c r="D270" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>4519125</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C271" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>4552944</v>
       </c>
@@ -4100,11 +3438,8 @@
       <c r="C272" s="2">
         <v>15</v>
       </c>
-      <c r="D272" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>4552167</v>
       </c>
@@ -4114,11 +3449,8 @@
       <c r="C273" s="2">
         <v>21</v>
       </c>
-      <c r="D273" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>4521586</v>
       </c>
@@ -4128,11 +3460,8 @@
       <c r="C274">
         <v>22</v>
       </c>
-      <c r="D274" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>4554008</v>
       </c>
@@ -4142,11 +3471,8 @@
       <c r="C275">
         <v>22</v>
       </c>
-      <c r="D275" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>4548922</v>
       </c>
@@ -4156,11 +3482,8 @@
       <c r="C276">
         <v>26</v>
       </c>
-      <c r="D276" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>4553400</v>
       </c>
@@ -4170,11 +3493,8 @@
       <c r="C277">
         <v>33</v>
       </c>
-      <c r="D277" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>4551321</v>
       </c>
@@ -4184,11 +3504,8 @@
       <c r="C278">
         <v>26</v>
       </c>
-      <c r="D278" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>4535068</v>
       </c>
@@ -4197,9 +3514,6 @@
       </c>
       <c r="C279" s="2">
         <v>15</v>
-      </c>
-      <c r="D279" s="2">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
